--- a/测试.xlsx
+++ b/测试.xlsx
@@ -17,13 +17,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="001874CD"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <color rgb="001874CD"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +57,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,11 +433,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="100" customWidth="1" style="1" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="100" customFormat="1" customHeight="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>标题1</t>
+          <t>行高被设置为 100</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">

--- a/测试.xlsx
+++ b/测试.xlsx
@@ -726,6 +726,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:F40">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <formula>NOT(ISERROR(SEARCH("highlight",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>